--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Asistenti</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Radu Hoaghe</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -192,6 +201,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,17 +509,17 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -526,7 +536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -534,7 +544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -542,7 +552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -550,10 +560,12 @@
         <v>18</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -561,10 +573,12 @@
         <v>19</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -572,10 +586,12 @@
         <v>20</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -583,10 +599,12 @@
         <v>21</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -597,29 +615,33 @@
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -630,7 +652,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -641,7 +663,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -652,7 +674,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -663,7 +685,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -674,7 +696,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -685,7 +707,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -696,7 +718,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -707,7 +729,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -718,7 +740,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -729,7 +751,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -752,7 +774,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -764,7 +786,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Radu Hoaghe</t>
+  </si>
+  <si>
+    <t>Andrei Marica (?)</t>
+  </si>
+  <si>
+    <t>Andrei Marica</t>
   </si>
 </sst>
 </file>
@@ -509,17 +515,17 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -536,7 +542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -544,7 +550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -552,7 +558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -565,7 +571,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -578,7 +584,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -591,7 +597,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -604,18 +610,20 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -625,10 +633,12 @@
       <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -638,10 +648,12 @@
       <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -652,7 +664,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -663,7 +675,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -674,7 +686,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -685,7 +697,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -696,7 +708,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -707,7 +719,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -715,10 +727,12 @@
         <v>8</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -726,10 +740,12 @@
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -737,10 +753,12 @@
         <v>10</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -748,10 +766,12 @@
         <v>11</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -774,7 +794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -786,7 +806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -112,13 +112,16 @@
     <t>Cristian Dumitru, Radu Hoaghe</t>
   </si>
   <si>
-    <t>Radu Hoaghe</t>
-  </si>
-  <si>
     <t>Andrei Marica (?)</t>
   </si>
   <si>
     <t>Andrei Marica</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Cristian Dumitru</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -567,7 +570,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -580,7 +583,7 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -593,7 +596,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -606,7 +609,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -618,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
@@ -634,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -649,7 +652,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -672,7 +675,9 @@
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -694,7 +699,9 @@
         <v>5</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -728,7 +735,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -741,7 +748,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -754,7 +761,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -767,7 +774,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Andrei Marica, Cristian Dumitru</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihaela Scripcaru</t>
+  </si>
+  <si>
+    <t>Mihaela Scripcaru(?)</t>
   </si>
 </sst>
 </file>
@@ -517,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -637,7 +646,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -652,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -698,7 +707,9 @@
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
@@ -761,7 +772,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Mihaela Scripcaru(?)</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe</t>
   </si>
 </sst>
 </file>
@@ -526,18 +529,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -554,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -562,7 +565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -570,7 +573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -583,7 +586,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -596,7 +599,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -609,7 +612,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -622,7 +625,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -632,10 +635,12 @@
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -650,7 +655,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -665,7 +670,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -676,7 +681,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -689,7 +694,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -700,7 +705,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -715,7 +720,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -726,7 +731,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -737,7 +742,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -750,7 +755,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -763,7 +768,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -776,7 +781,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -789,7 +794,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -812,7 +817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -824,7 +829,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Cristian Dumitru</t>
   </si>
   <si>
-    <t>Andrei Marica, Cristian Dumitru</t>
-  </si>
-  <si>
     <t>Andrei Marica, Ioan Dinu</t>
   </si>
   <si>
@@ -133,7 +130,13 @@
     <t>Mihaela Scripcaru(?)</t>
   </si>
   <si>
-    <t>Radu Hoaghe</t>
+    <t>Andrei Marica, Ioan Dinu, Catalin Bina</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Cristian Dumitru, Catalin Bina</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Catalin Bina</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -636,7 +639,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -651,7 +654,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -666,7 +669,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -713,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -751,7 +754,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -764,7 +767,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -777,7 +780,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -136,7 +136,10 @@
     <t>Andrei Marica, Cristian Dumitru, Catalin Bina</t>
   </si>
   <si>
-    <t>Radu Hoaghe, Catalin Bina</t>
+    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?)</t>
   </si>
 </sst>
 </file>
@@ -533,17 +536,17 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -560,7 +563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -568,7 +571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -576,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -585,11 +588,11 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -598,11 +601,11 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -611,11 +614,11 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -624,11 +627,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -643,7 +646,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -658,7 +661,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -673,7 +676,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -684,7 +687,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -697,7 +700,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -708,7 +711,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -723,7 +726,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -734,7 +737,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -745,7 +748,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -758,7 +761,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -771,7 +774,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -784,7 +787,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -797,7 +800,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -820,7 +823,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -832,7 +835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Radu Hoaghe, Cristian Dumitru(?)</t>
+  </si>
+  <si>
+    <t>Git</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -563,41 +566,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
@@ -607,10 +608,10 @@
     </row>
     <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
@@ -620,10 +621,10 @@
     </row>
     <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
@@ -633,116 +634,118 @@
     </row>
     <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -750,23 +753,21 @@
     </row>
     <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
@@ -776,40 +777,53 @@
     </row>
     <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -106,12 +106,6 @@
     <t>Asistenti</t>
   </si>
   <si>
-    <t>Radu Hoaghe, Cristian Dumitru</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru, Radu Hoaghe</t>
-  </si>
-  <si>
     <t>Andrei Marica (?)</t>
   </si>
   <si>
@@ -121,18 +115,12 @@
     <t>Cristian Dumitru</t>
   </si>
   <si>
-    <t>Andrei Marica, Ioan Dinu</t>
-  </si>
-  <si>
     <t>Andrei Marica, Mihaela Scripcaru</t>
   </si>
   <si>
     <t>Mihaela Scripcaru(?)</t>
   </si>
   <si>
-    <t>Andrei Marica, Ioan Dinu, Catalin Bina</t>
-  </si>
-  <si>
     <t>Andrei Marica, Cristian Dumitru, Catalin Bina</t>
   </si>
   <si>
@@ -143,6 +131,15 @@
   </si>
   <si>
     <t>Git</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe</t>
+  </si>
+  <si>
+    <t>Catalin Bina, Cristian Dumitru</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Catalin Bina</t>
   </si>
 </sst>
 </file>
@@ -539,17 +536,17 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -566,18 +563,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -585,7 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -593,7 +590,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -602,11 +599,11 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -615,11 +612,11 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -628,11 +625,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -641,11 +638,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -653,14 +650,14 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -668,14 +665,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -683,14 +680,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -701,7 +698,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -710,11 +707,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -725,7 +722,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -733,14 +730,14 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -751,7 +748,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -762,7 +759,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -771,11 +768,11 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -784,11 +781,11 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -797,11 +794,11 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -810,11 +807,11 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -837,7 +834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -849,7 +846,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -133,13 +133,16 @@
     <t>Git</t>
   </si>
   <si>
-    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe</t>
-  </si>
-  <si>
     <t>Catalin Bina, Cristian Dumitru</t>
   </si>
   <si>
     <t>Cristian Dumitru, Catalin Bina</t>
+  </si>
+  <si>
+    <t>Oana Besliu</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?)</t>
   </si>
 </sst>
 </file>
@@ -536,17 +539,17 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -563,7 +566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -574,7 +577,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -582,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -590,7 +593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -603,7 +606,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -616,7 +619,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -629,7 +632,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -642,7 +645,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -657,7 +660,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -665,14 +668,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -680,14 +683,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -698,7 +701,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -711,7 +714,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -719,10 +722,12 @@
         <v>4</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -737,7 +742,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -748,7 +753,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -759,33 +764,37 @@
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -798,7 +807,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -811,7 +820,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -834,7 +843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -846,7 +855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru</t>
   </si>
   <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?)</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -143,6 +140,33 @@
   </si>
   <si>
     <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?)</t>
+  </si>
+  <si>
+    <t>Spoiala Marian</t>
+  </si>
+  <si>
+    <t>Mihai Sandu</t>
+  </si>
+  <si>
+    <t>Bianca Ambrosa, Gentiana Mecu</t>
+  </si>
+  <si>
+    <t>Spoiala Marian, Daniel Ioan Ivan</t>
+  </si>
+  <si>
+    <t>Tekin Omer</t>
+  </si>
+  <si>
+    <t>Spoiala Marian, Bianca Ambrosa,  Daniel Ioan Ivan</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian</t>
+  </si>
+  <si>
+    <t>Gentiana Mecu</t>
   </si>
 </sst>
 </file>
@@ -538,18 +562,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -566,18 +590,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -585,41 +609,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -628,11 +662,11 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -641,11 +675,11 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -660,7 +694,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -668,14 +702,14 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -683,38 +717,44 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -723,11 +763,11 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -742,18 +782,22 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -764,7 +808,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -772,14 +816,14 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -787,14 +831,14 @@
         <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -807,7 +851,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -820,7 +864,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -843,7 +887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,7 +899,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="521"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -167,6 +167,72 @@
   </si>
   <si>
     <t>Gentiana Mecu</t>
+  </si>
+  <si>
+    <t>2017.06.26</t>
+  </si>
+  <si>
+    <t>2017.06.27</t>
+  </si>
+  <si>
+    <t>2017.06.28</t>
+  </si>
+  <si>
+    <t>2017.06.29</t>
+  </si>
+  <si>
+    <t>2017.06.30</t>
+  </si>
+  <si>
+    <t>2017.07.03</t>
+  </si>
+  <si>
+    <t>2017.07.04</t>
+  </si>
+  <si>
+    <t>2017.07.05</t>
+  </si>
+  <si>
+    <t>2017.07.06</t>
+  </si>
+  <si>
+    <t>2017.07.07</t>
+  </si>
+  <si>
+    <t>2017.07.10</t>
+  </si>
+  <si>
+    <t>2017.07.11</t>
+  </si>
+  <si>
+    <t>2017.07.12</t>
+  </si>
+  <si>
+    <t>2017.07.13</t>
+  </si>
+  <si>
+    <t>2017.07.14</t>
+  </si>
+  <si>
+    <t>2017.07.17</t>
+  </si>
+  <si>
+    <t>2017.07.18</t>
+  </si>
+  <si>
+    <t>2017.07.19</t>
+  </si>
+  <si>
+    <t>2017.07.20</t>
+  </si>
+  <si>
+    <t>2017.07.21</t>
+  </si>
+  <si>
+    <t>2017.07.24</t>
+  </si>
+  <si>
+    <t>Data estimativa</t>
   </si>
 </sst>
 </file>
@@ -560,320 +626,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="62.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="62.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,7 +1020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -899,7 +1032,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="521"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="521"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Andrei Marica, Cristian Dumitru, Catalin Bina</t>
   </si>
   <si>
-    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Oana Besliu</t>
   </si>
   <si>
-    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?)</t>
-  </si>
-  <si>
     <t>Spoiala Marian</t>
   </si>
   <si>
@@ -157,15 +151,6 @@
     <t>Tekin Omer</t>
   </si>
   <si>
-    <t>Spoiala Marian, Bianca Ambrosa,  Daniel Ioan Ivan</t>
-  </si>
-  <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan</t>
-  </si>
-  <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian</t>
-  </si>
-  <si>
     <t>Gentiana Mecu</t>
   </si>
   <si>
@@ -233,6 +218,37 @@
   </si>
   <si>
     <t>Data estimativa</t>
+  </si>
+  <si>
+    <r>
+      <t>Spoiala Marian, Bianca Ambrosa,  Daniel Ioan Ivan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Mihai Tudose</t>
+    </r>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru, Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?), Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Oana Besliu, Mihai Tudose</t>
   </si>
 </sst>
 </file>
@@ -628,21 +644,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="62.5546875" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="62.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -660,23 +676,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -685,9 +701,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -696,15 +712,15 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -713,16 +729,16 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -731,16 +747,16 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -750,13 +766,13 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -766,13 +782,13 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -784,13 +800,13 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -799,16 +815,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -817,16 +833,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -835,16 +851,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -853,16 +869,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -872,13 +888,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -894,9 +910,9 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -905,16 +921,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -926,9 +942,9 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -937,16 +953,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -955,16 +971,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -978,9 +994,9 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -994,9 +1010,9 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -1020,7 +1036,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1032,7 +1048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="521"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="521"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Oana Besliu, Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihaela Scripcaru</t>
+  </si>
+  <si>
+    <t>Mihaela Scripcaru</t>
   </si>
 </sst>
 </file>
@@ -645,18 +651,18 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="62.5703125" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="62.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -676,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -690,7 +696,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -701,7 +707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -718,7 +724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -736,7 +742,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -754,7 +760,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -770,7 +776,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -786,7 +792,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -804,7 +810,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -822,7 +828,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -840,7 +846,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -858,7 +864,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -872,11 +878,11 @@
         <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -892,7 +898,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -903,14 +909,14 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -928,7 +934,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -942,7 +948,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -960,7 +966,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -978,7 +984,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -994,7 +1000,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -1010,7 +1016,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1036,7 +1042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1048,7 +1054,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Andrei Marica, Mihaela Scripcaru</t>
-  </si>
-  <si>
-    <t>Mihaela Scripcaru(?)</t>
   </si>
   <si>
     <t>Andrei Marica, Cristian Dumitru, Catalin Bina</t>
@@ -255,6 +252,9 @@
   </si>
   <si>
     <t>Mihaela Scripcaru</t>
+  </si>
+  <si>
+    <t>Alexandru Bottea</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -664,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -684,91 +684,98 @@
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>63</v>
       </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
@@ -778,32 +785,34 @@
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>66</v>
@@ -812,184 +821,180 @@
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17">
-        <v>15</v>
+      <c r="B17" s="1">
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
@@ -1002,10 +1007,10 @@
     </row>
     <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>11</v>
@@ -1018,10 +1023,10 @@
     </row>
     <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -107,15 +107,6 @@
   </si>
   <si>
     <t>Andrei Marica (?)</t>
-  </si>
-  <si>
-    <t>Andrei Marica</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Mihaela Scripcaru</t>
   </si>
   <si>
     <t>Andrei Marica, Cristian Dumitru, Catalin Bina</t>
@@ -245,9 +236,6 @@
     <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?), Mihai Tudose</t>
   </si>
   <si>
-    <t>Oana Besliu, Mihai Tudose</t>
-  </si>
-  <si>
     <t>Cristian Dumitru, Mihaela Scripcaru</t>
   </si>
   <si>
@@ -255,6 +243,36 @@
   </si>
   <si>
     <t>Alexandru Bottea</t>
+  </si>
+  <si>
+    <t>Tacliciu Viorel</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc</t>
+  </si>
+  <si>
+    <t>Alexandru Bottea, Tacliciu Viorel</t>
+  </si>
+  <si>
+    <t>Spoiala Marian, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Oana Besliu, Mihai Tudose, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihai Vaduva, Radu Sezciuc</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva, Radu Sezciuc</t>
   </si>
 </sst>
 </file>
@@ -650,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -664,7 +682,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -684,23 +702,25 @@
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -709,15 +729,15 @@
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -726,16 +746,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -744,16 +764,16 @@
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -761,15 +781,17 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -777,15 +799,17 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -797,13 +821,13 @@
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -812,16 +836,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -830,16 +854,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -848,16 +872,16 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -866,16 +890,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -883,15 +907,17 @@
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -900,16 +926,16 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -918,16 +944,16 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -935,13 +961,17 @@
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -950,12 +980,15 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -964,16 +997,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -982,16 +1015,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -999,15 +1032,17 @@
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1015,15 +1050,17 @@
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1031,8 +1068,12 @@
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
   </sheetData>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -208,6 +208,51 @@
     <t>Data estimativa</t>
   </si>
   <si>
+    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru, Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?), Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihaela Scripcaru</t>
+  </si>
+  <si>
+    <t>Mihaela Scripcaru</t>
+  </si>
+  <si>
+    <t>Alexandru Bottea</t>
+  </si>
+  <si>
+    <t>Tacliciu Viorel</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc</t>
+  </si>
+  <si>
+    <t>Alexandru Bottea, Tacliciu Viorel</t>
+  </si>
+  <si>
+    <t>Spoiala Marian, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Oana Besliu, Mihai Tudose, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihai Vaduva, Radu Sezciuc</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva, Radu Sezciuc</t>
+  </si>
+  <si>
     <r>
       <t>Spoiala Marian, Bianca Ambrosa,  Daniel Ioan Ivan</t>
     </r>
@@ -220,59 +265,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, Mihai Tudose</t>
+      <t>, Mihai Tudose, Hanna Botar</t>
     </r>
   </si>
   <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru, Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?), Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru, Mihaela Scripcaru</t>
-  </si>
-  <si>
-    <t>Mihaela Scripcaru</t>
-  </si>
-  <si>
-    <t>Alexandru Bottea</t>
-  </si>
-  <si>
-    <t>Tacliciu Viorel</t>
-  </si>
-  <si>
-    <t>Radu Sezciuc</t>
-  </si>
-  <si>
-    <t>Alexandru Bottea, Tacliciu Viorel</t>
-  </si>
-  <si>
-    <t>Spoiala Marian, Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru, Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Oana Besliu, Mihai Tudose, Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Mihai Vaduva, Radu Sezciuc</t>
-  </si>
-  <si>
-    <t>Mihai Vaduva, Radu Sezciuc</t>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose, Hanna Botar</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -711,10 +711,10 @@
         <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -732,7 +732,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -767,7 +767,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -782,10 +782,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -800,10 +800,10 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -821,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -839,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -857,7 +857,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -893,7 +893,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -908,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -926,10 +926,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>36</v>
@@ -962,10 +962,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -980,10 +980,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1033,10 +1033,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1051,10 +1051,10 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1069,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="521"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="354"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc, Oana Besliu</t>
   </si>
 </sst>
 </file>
@@ -668,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -714,7 +717,7 @@
         <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar</t>
-  </si>
-  <si>
-    <t>Radu Sezciuc, Oana Besliu</t>
   </si>
 </sst>
 </file>
@@ -717,7 +714,7 @@
         <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -272,7 +272,7 @@
     <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose, Hanna Botar</t>
   </si>
   <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar</t>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar, Roxana Macarie</t>
   </si>
 </sst>
 </file>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -106,12 +106,6 @@
     <t>Asistenti</t>
   </si>
   <si>
-    <t>Andrei Marica (?)</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Cristian Dumitru, Catalin Bina</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -130,18 +124,9 @@
     <t>Mihai Sandu</t>
   </si>
   <si>
-    <t>Bianca Ambrosa, Gentiana Mecu</t>
-  </si>
-  <si>
-    <t>Spoiala Marian, Daniel Ioan Ivan</t>
-  </si>
-  <si>
     <t>Tekin Omer</t>
   </si>
   <si>
-    <t>Gentiana Mecu</t>
-  </si>
-  <si>
     <t>2017.06.26</t>
   </si>
   <si>
@@ -208,15 +193,6 @@
     <t>Data estimativa</t>
   </si>
   <si>
-    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru, Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu (?), Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru, Mihaela Scripcaru</t>
-  </si>
-  <si>
     <t>Mihaela Scripcaru</t>
   </si>
   <si>
@@ -229,28 +205,7 @@
     <t>Radu Sezciuc</t>
   </si>
   <si>
-    <t>Alexandru Bottea, Tacliciu Viorel</t>
-  </si>
-  <si>
-    <t>Spoiala Marian, Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru, Mihai Vaduva</t>
-  </si>
-  <si>
     <t>Oana Besliu, Mihai Tudose, Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Mihai Vaduva, Radu Sezciuc</t>
-  </si>
-  <si>
-    <t>Mihai Vaduva, Radu Sezciuc</t>
   </si>
   <si>
     <r>
@@ -274,12 +229,63 @@
   <si>
     <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar, Roxana Macarie</t>
   </si>
+  <si>
+    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru, Mihai Tudose, Mihaela Scripcaru</t>
+  </si>
+  <si>
+    <t>Andrei Marica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bianca Ambrosia, Gentiana </t>
+  </si>
+  <si>
+    <t>Radu Sezciuc ***</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc, Tacliciu Viorel, Diana Micu</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva, Radu Sezciuc, Diana Micu</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihaela Scripcaru, Gentiana Mecu</t>
+  </si>
+  <si>
+    <t>Spoiala Marian, Daniel Ioan Ivan, Mihai Sandu, Tekin Omer</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu, Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Cristian Dumitru, Catalin Bina, Kapa, Tekin Omer</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihai Vaduva, Andrei Marica, Cristian Dumitru, Radu Hoaghe</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandru Bottea</t>
+  </si>
+  <si>
+    <t>Gentiana Mecu, Daniel Ivan, Bianca Ambrosa, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc, Bianca Ambrosa, Daniel Ivan, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihai Vaduva, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandu Bottea</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva, Radu Sezciuc, Andrei Marica, Oana Besliu, Diana Micu, Alexandru Bottea</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu , Mihai Tudose</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,8 +315,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +340,11 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -348,10 +366,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,8 +381,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -682,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -702,25 +727,25 @@
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -729,15 +754,15 @@
         <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -746,16 +771,16 @@
         <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -764,16 +789,16 @@
         <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -785,13 +810,13 @@
         <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -803,13 +828,13 @@
         <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -818,16 +843,16 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -836,52 +861,52 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -890,34 +915,34 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>70</v>
+      <c r="D13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -926,16 +951,16 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -944,16 +969,16 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -962,16 +987,16 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -980,15 +1005,15 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -997,16 +1022,16 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1015,16 +1040,16 @@
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1033,16 +1058,16 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1051,16 +1076,16 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1069,10 +1094,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -236,9 +236,6 @@
     <t>Andrei Marica</t>
   </si>
   <si>
-    <t xml:space="preserve">Bianca Ambrosia, Gentiana </t>
-  </si>
-  <si>
     <t>Radu Sezciuc ***</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu, Mihai Tudose</t>
   </si>
   <si>
-    <t>Andrei Marica, Cristian Dumitru, Catalin Bina, Kapa, Tekin Omer</t>
-  </si>
-  <si>
     <t>Cristian Dumitru, Mihai Vaduva, Andrei Marica, Cristian Dumitru, Radu Hoaghe</t>
   </si>
   <si>
@@ -279,6 +273,12 @@
   </si>
   <si>
     <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu , Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Cristian Dumitru, Catalin Bina, Alexandru Krancevik, Tekin Omer</t>
+  </si>
+  <si>
+    <t>Bianca Ambrosia, Gentiana Mecu</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -739,7 +739,7 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -807,7 +807,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>60</v>
@@ -825,7 +825,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>61</v>
@@ -864,7 +864,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -879,10 +879,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -900,7 +900,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -918,7 +918,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -954,7 +954,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -972,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -990,7 +990,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1008,7 +1008,7 @@
         <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1043,7 +1043,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1061,7 +1061,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1079,7 +1079,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1097,7 +1097,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="354"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="354"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,6 +208,63 @@
     <t>Oana Besliu, Mihai Tudose, Mihai Vaduva</t>
   </si>
   <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose, Hanna Botar</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru, Mihai Tudose, Mihaela Scripcaru</t>
+  </si>
+  <si>
+    <t>Andrei Marica</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc ***</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc, Tacliciu Viorel, Diana Micu</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva, Radu Sezciuc, Diana Micu</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihaela Scripcaru, Gentiana Mecu</t>
+  </si>
+  <si>
+    <t>Spoiala Marian, Daniel Ioan Ivan, Mihai Sandu, Tekin Omer</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu, Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihai Vaduva, Andrei Marica, Cristian Dumitru, Radu Hoaghe</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandru Bottea</t>
+  </si>
+  <si>
+    <t>Gentiana Mecu, Daniel Ivan, Bianca Ambrosa, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Radu Sezciuc, Bianca Ambrosa, Daniel Ivan, Mihai Vaduva</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Mihai Vaduva, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandu Bottea</t>
+  </si>
+  <si>
+    <t>Mihai Vaduva, Radu Sezciuc, Andrei Marica, Oana Besliu, Diana Micu, Alexandru Bottea</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu , Mihai Tudose</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Cristian Dumitru, Catalin Bina, Alexandru Krancevik, Tekin Omer</t>
+  </si>
+  <si>
+    <t>Bianca Ambrosia, Gentiana Mecu</t>
+  </si>
+  <si>
+    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar</t>
+  </si>
+  <si>
     <r>
       <t>Spoiala Marian, Bianca Ambrosa,  Daniel Ioan Ivan</t>
     </r>
@@ -220,65 +277,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, Mihai Tudose, Hanna Botar</t>
+      <t>, Mihai Tudose, Hanna Botar, Roxana Macarie</t>
     </r>
-  </si>
-  <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose, Hanna Botar</t>
-  </si>
-  <si>
-    <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Spoiala Marian, Mihai Tudose, Hanna Botar, Roxana Macarie</t>
-  </si>
-  <si>
-    <t>Radu Hoaghe, Catalin Bina, Cristian Dumitru, Mihai Tudose, Mihaela Scripcaru</t>
-  </si>
-  <si>
-    <t>Andrei Marica</t>
-  </si>
-  <si>
-    <t>Radu Sezciuc ***</t>
-  </si>
-  <si>
-    <t>Radu Sezciuc, Tacliciu Viorel, Diana Micu</t>
-  </si>
-  <si>
-    <t>Mihai Vaduva, Radu Sezciuc, Diana Micu</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru, Mihaela Scripcaru, Gentiana Mecu</t>
-  </si>
-  <si>
-    <t>Spoiala Marian, Daniel Ioan Ivan, Mihai Sandu, Tekin Omer</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu, Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Cristian Dumitru, Mihai Vaduva, Andrei Marica, Cristian Dumitru, Radu Hoaghe</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandru Bottea</t>
-  </si>
-  <si>
-    <t>Gentiana Mecu, Daniel Ivan, Bianca Ambrosa, Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Radu Sezciuc, Bianca Ambrosa, Daniel Ivan, Mihai Vaduva</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Mihai Vaduva, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandu Bottea</t>
-  </si>
-  <si>
-    <t>Mihai Vaduva, Radu Sezciuc, Andrei Marica, Oana Besliu, Diana Micu, Alexandru Bottea</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu , Mihai Tudose</t>
-  </si>
-  <si>
-    <t>Andrei Marica, Cristian Dumitru, Catalin Bina, Alexandru Krancevik, Tekin Omer</t>
-  </si>
-  <si>
-    <t>Bianca Ambrosia, Gentiana Mecu</t>
   </si>
 </sst>
 </file>
@@ -693,19 +693,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="62.5546875" customWidth="1"/>
-    <col min="6" max="6" width="44.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="62.5703125" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -739,11 +739,11 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -757,10 +757,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -774,11 +774,11 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -792,11 +792,11 @@
         <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -807,14 +807,14 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -825,14 +825,14 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -843,14 +843,14 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -864,11 +864,11 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -879,14 +879,14 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -900,11 +900,11 @@
         <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -918,11 +918,11 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -940,7 +940,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -954,11 +954,11 @@
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -972,11 +972,11 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -990,11 +990,11 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1008,10 +1008,10 @@
         <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1025,11 +1025,11 @@
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1043,11 +1043,11 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1061,11 +1061,11 @@
         <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1079,11 +1079,11 @@
         <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1113,7 +1113,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1125,7 +1125,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Know your language - OOP</t>
   </si>
@@ -277,8 +277,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, Mihai Tudose, Hanna Botar, Roxana Macarie</t>
+      <t>, Mihai Tudose, Hanna Botar, Roxana Macarie, Radu Hoaghe</t>
     </r>
+  </si>
+  <si>
+    <t>Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose, Hanna Botar</t>
   </si>
 </sst>
 </file>
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -774,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="354"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="354"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,12 +200,6 @@
   </si>
   <si>
     <t>Tacliciu Viorel</t>
-  </si>
-  <si>
-    <t>Radu Sezciuc</t>
-  </si>
-  <si>
-    <t>Oana Besliu, Mihai Tudose, Mihai Vaduva</t>
   </si>
   <si>
     <t>Radu Hoaghe, Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose, Hanna Botar</t>
@@ -282,6 +276,12 @@
   </si>
   <si>
     <t>Cristian Dumitru(?), Bianca Ambrosa, Daniel Ioan Ivan, Mihai Tudose, Hanna Botar</t>
+  </si>
+  <si>
+    <t>Anca Neamtu</t>
+  </si>
+  <si>
+    <t>Madalin Purice, Carmen Bonciog, Nicoleta Fusea</t>
   </si>
 </sst>
 </file>
@@ -319,14 +319,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,11 +344,6 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,11 +365,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,14 +379,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -696,19 +686,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="62.5703125" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="62.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -728,7 +718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -742,11 +732,11 @@
         <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -760,10 +750,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -777,11 +767,11 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -795,11 +785,11 @@
         <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -810,14 +800,14 @@
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -828,14 +818,14 @@
         <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -846,14 +836,14 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -867,11 +857,11 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -882,14 +872,14 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -903,11 +893,11 @@
         <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -921,29 +911,28 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -957,11 +946,11 @@
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -975,11 +964,11 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -993,11 +982,11 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1011,10 +1000,10 @@
         <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1028,11 +1017,11 @@
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1046,11 +1035,11 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1064,11 +1053,11 @@
         <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -1082,11 +1071,11 @@
         <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1100,7 +1089,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1116,7 +1105,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1128,7 +1117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -232,9 +232,6 @@
     <t>Cristian Dumitru, Mihai Vaduva, Andrei Marica, Cristian Dumitru, Radu Hoaghe</t>
   </si>
   <si>
-    <t>Andrei Marica, Mihaela Scripcaru, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandru Bottea</t>
-  </si>
-  <si>
     <t>Gentiana Mecu, Daniel Ivan, Bianca Ambrosa, Mihai Vaduva</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Madalin Purice, Carmen Bonciog, Nicoleta Fusea</t>
+  </si>
+  <si>
+    <t>Andrei Marica, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandru Bottea</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -750,7 +750,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -821,7 +821,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -857,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>64</v>
@@ -926,10 +926,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
         <v>78</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -964,7 +964,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -982,7 +982,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1035,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1053,7 +1053,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1071,7 +1071,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1089,7 +1089,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1"/>
     </row>

--- a/Program+Traineri_Z2H_2017.xlsx
+++ b/Program+Traineri_Z2H_2017.xlsx
@@ -229,9 +229,6 @@
     <t>Andrei Marica, Ioan Dinu, Radu Hoaghe, Oana Besliu, Mihai Tudose</t>
   </si>
   <si>
-    <t>Cristian Dumitru, Mihai Vaduva, Andrei Marica, Cristian Dumitru, Radu Hoaghe</t>
-  </si>
-  <si>
     <t>Gentiana Mecu, Daniel Ivan, Bianca Ambrosa, Mihai Vaduva</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>Andrei Marica, Radu Sezciuc, Oana Besliu, Diana Micu, Alexandru Bottea</t>
+  </si>
+  <si>
+    <t>Cristian Dumitru, Mihai Vaduva, Andrei Marica, Ionut Dinu, Radu Hoaghe</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -750,7 +750,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -767,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -821,7 +821,7 @@
         <v>60</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -857,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>64</v>
@@ -926,10 +926,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -946,7 +946,7 @@
         <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -964,7 +964,7 @@
         <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -982,7 +982,7 @@
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1017,7 +1017,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1035,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1053,7 +1053,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1071,7 +1071,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1089,7 +1089,7 @@
         <v>56</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1"/>
     </row>
